--- a/Model_Summary.xlsx
+++ b/Model_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3ADCCA-8F83-4648-BCA0-7B22EB30A82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C226510-C3EF-4FBC-8164-FF14C3633666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{6E2E062B-B60C-4FA5-93F5-632965E600EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Model Design</t>
   </si>
@@ -86,7 +86,19 @@
     <t>Model accuracy</t>
   </si>
   <si>
-    <t>79% with 1 bin variance</t>
+    <t>86% with 1 bin variance error</t>
+  </si>
+  <si>
+    <t>79% with 1 bin variance error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training and testing data retrivial </t>
+  </si>
+  <si>
+    <t>Loaded onto RDS and exported as csv files from pgadmin</t>
+  </si>
+  <si>
+    <t>Code file: Loading_ML_Model_Data.ipynb</t>
   </si>
 </sst>
 </file>
@@ -442,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B1AF45-30A1-4CC6-B6B0-443C2EA90926}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,11 +526,24 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.65</v>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
